--- a/Teaching/2015fall/groups.xlsx
+++ b/Teaching/2015fall/groups.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aragorn/Working/sijichun.github.io/Teaching/2015fall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aragorn/Working/World Economy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="988"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22340" windowHeight="12280" tabRatio="988"/>
   </bookViews>
   <sheets>
     <sheet name="一班" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>组号（报告顺序）</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Rubble</t>
   </si>
   <si>
-    <t>张乐韵、陈亨</t>
-  </si>
-  <si>
     <t>张蕊</t>
   </si>
   <si>
@@ -76,96 +73,6 @@
   </si>
   <si>
     <t>孙俊燕</t>
-  </si>
-  <si>
-    <t>Soros v.s. British</t>
-  </si>
-  <si>
-    <t>宋西岩</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>吕斌、张洲屹、张广擎</t>
-  </si>
-  <si>
-    <t>宋凯</t>
-  </si>
-  <si>
-    <t>Mexican</t>
-  </si>
-  <si>
-    <t>方励、徐梦、张乔丹</t>
-  </si>
-  <si>
-    <t>柴悦欣</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>胡泱秧、金怡</t>
-  </si>
-  <si>
-    <t>李奇</t>
-  </si>
-  <si>
-    <t>陈琳、季萍、严心若</t>
-  </si>
-  <si>
-    <t>徐婷</t>
-  </si>
-  <si>
-    <t>郑玲玲、吴舒倩</t>
-  </si>
-  <si>
-    <t>许晴</t>
-  </si>
-  <si>
-    <t>宋晨琳、颜新、王英</t>
-  </si>
-  <si>
-    <t>诸彬彦</t>
-  </si>
-  <si>
-    <t>王梓萌、徐金鑫、施汉峰</t>
-  </si>
-  <si>
-    <t>周光磊</t>
-  </si>
-  <si>
-    <t>Aisa</t>
-  </si>
-  <si>
-    <t>徐泽涛、杨闻宇</t>
-  </si>
-  <si>
-    <t>张文天</t>
-  </si>
-  <si>
-    <t>Euro7</t>
-  </si>
-  <si>
-    <t>沈钰、王羽家、林慧</t>
-  </si>
-  <si>
-    <t>叶玉成</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>谢忠磊、李晶、徐星宇</t>
-  </si>
-  <si>
-    <t>郑翔</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>刘亚伦、宋庆云</t>
   </si>
   <si>
     <r>
@@ -176,16 +83,126 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="‘v‘Ì"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
-      <t>王羡童、陈明雨</t>
+      <t>王羡童</t>
     </r>
+  </si>
+  <si>
+    <t>宋西岩</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>吕斌、张洲屹、张广擎</t>
+  </si>
+  <si>
+    <t>宋凯</t>
+  </si>
+  <si>
+    <t>Mexican</t>
+  </si>
+  <si>
+    <t>方励、徐梦、张乔丹</t>
+  </si>
+  <si>
+    <t>柴悦欣</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>李奇</t>
+  </si>
+  <si>
+    <t>陈琳、季萍、严心若</t>
+  </si>
+  <si>
+    <t>徐婷</t>
+  </si>
+  <si>
+    <t>郑玲玲、吴舒倩</t>
+  </si>
+  <si>
+    <t>许晴</t>
+  </si>
+  <si>
+    <t>宋晨琳、颜新、王英</t>
+  </si>
+  <si>
+    <t>诸彬彦</t>
+  </si>
+  <si>
+    <t>王梓萌、徐金鑫、施汉峰</t>
+  </si>
+  <si>
+    <t>周光磊</t>
+  </si>
+  <si>
+    <t>Aisa</t>
+  </si>
+  <si>
+    <t>徐泽涛、杨闻宇</t>
+  </si>
+  <si>
+    <t>张文天</t>
+  </si>
+  <si>
+    <t>Euro7</t>
+  </si>
+  <si>
+    <t>沈钰、王羽家、林慧</t>
+  </si>
+  <si>
+    <t>叶玉成</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>谢忠磊、李晶、徐星宇</t>
+  </si>
+  <si>
+    <t>郑翔</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>刘亚伦、宋庆云</t>
+  </si>
+  <si>
+    <t>顾合宬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张乐韵、陈亨、王昱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡泱秧、金怡、陈明雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊宣庆、邹洁、黄天豪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soros v.s. British</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -200,6 +217,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="‘v‘Ì"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,7 +260,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -255,39 +280,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,142 +391,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -510,12 +559,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -571,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -579,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -593,13 +644,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -607,13 +658,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -621,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -635,24 +686,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -671,6 +729,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -691,13 +752,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -705,13 +766,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -719,13 +780,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -733,13 +794,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -747,13 +808,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -761,13 +822,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -775,13 +836,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -789,13 +850,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.25">
@@ -807,7 +868,9 @@
       <c r="D10" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Teaching/2015fall/groups.xlsx
+++ b/Teaching/2015fall/groups.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aragorn/Working/World Economy/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22340" windowHeight="12280" tabRatio="988"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一班" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>组号（报告顺序）</t>
   </si>
@@ -123,15 +118,9 @@
     <t>徐婷</t>
   </si>
   <si>
-    <t>郑玲玲、吴舒倩</t>
-  </si>
-  <si>
     <t>许晴</t>
   </si>
   <si>
-    <t>宋晨琳、颜新、王英</t>
-  </si>
-  <si>
     <t>诸彬彦</t>
   </si>
   <si>
@@ -144,9 +133,6 @@
     <t>Aisa</t>
   </si>
   <si>
-    <t>徐泽涛、杨闻宇</t>
-  </si>
-  <si>
     <t>张文天</t>
   </si>
   <si>
@@ -171,9 +157,6 @@
     <t>Argentina</t>
   </si>
   <si>
-    <t>刘亚伦、宋庆云</t>
-  </si>
-  <si>
     <t>顾合宬</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -195,6 +178,30 @@
   </si>
   <si>
     <t>Brazil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱晨琳、颜新、王英</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐泽涛、杨闻宇、任俊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>史成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘亚伦、宋庆云、庄乾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘江薇、胡渊泽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑玲玲、吴舒倩、吴思婕</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -257,7 +264,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -558,18 +565,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -597,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -611,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -622,10 +629,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -639,7 +646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -647,13 +654,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -667,7 +674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -681,7 +688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -692,21 +699,21 @@
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -724,16 +731,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -761,7 +768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -772,100 +779,104 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
